--- a/data/excel_data.xlsx
+++ b/data/excel_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
   <si>
     <t>0 to 60 mph (secs)</t>
   </si>
@@ -236,109 +236,259 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>11.1:1</t>
+  </si>
+  <si>
+    <t>IN-LINE</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>70.8</t>
+  </si>
+  <si>
+    <t>78.9</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>65.7</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>FRONT TRANSVERSE</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>MULTI POINT FUEL INJECTION</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>5 SPEED</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>3653</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>15/02/2019</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>33748</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3999</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>EURO 6</t>
+  </si>
+  <si>
+    <t>C - 30 PA</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>DOHC</t>
+  </si>
+  <si>
+    <t>Smart Fortwo</t>
+  </si>
+  <si>
     <t>Black</t>
   </si>
   <si>
-    <t>11.1:1</t>
-  </si>
-  <si>
-    <t>IN-LINE</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>70.8</t>
-  </si>
-  <si>
-    <t>78.9</t>
-  </si>
-  <si>
-    <t>54.3</t>
-  </si>
-  <si>
-    <t>65.7</t>
-  </si>
-  <si>
-    <t>42.2</t>
-  </si>
-  <si>
-    <t>FRONT TRANSVERSE</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>5500</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>MULTI POINT FUEL INJECTION</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>5 SPEED</t>
-  </si>
-  <si>
-    <t>1551</t>
+    <t>11.4:1</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>81.8</t>
+  </si>
+  <si>
+    <t>70.6</t>
+  </si>
+  <si>
+    <t>61.4</t>
+  </si>
+  <si>
+    <t>REAR TRANSVERSE</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>38731</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>24/09/2019</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>51761</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>0.011</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>37,214</t>
-  </si>
-  <si>
-    <t>3653</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>02/04/2019</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>51,465</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>£3,799</t>
+    <t>12</t>
   </si>
   <si>
     <t>YES</t>
@@ -347,1095 +497,915 @@
     <t>EURO 5</t>
   </si>
   <si>
-    <t>C - £30 PA</t>
-  </si>
-  <si>
-    <t>MANUAL</t>
+    <t>A - 0 PA</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>SEMI-AUTO</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>02/10/2019</t>
+  </si>
+  <si>
+    <t>31584</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Vauxhall Corsa</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>73.4</t>
+  </si>
+  <si>
+    <t>72.6</t>
+  </si>
+  <si>
+    <t>51.4</t>
+  </si>
+  <si>
+    <t>62.8</t>
+  </si>
+  <si>
+    <t>39.2</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>09/09/2019</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>45754</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>D - 110 PA</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>SXi</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>2511</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Fiat 500</t>
+  </si>
+  <si>
+    <t>58.9</t>
+  </si>
+  <si>
+    <t>49.6</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>52930</t>
+  </si>
+  <si>
+    <t>3546</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>29/12/2018</t>
+  </si>
+  <si>
+    <t>60951</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Seat Mii</t>
+  </si>
+  <si>
+    <t>10.5:1</t>
+  </si>
+  <si>
+    <t>74.5</t>
+  </si>
+  <si>
+    <t>76.4</t>
+  </si>
+  <si>
+    <t>72.4</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>3557</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>26/09/2019</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>40041</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>4299</t>
+  </si>
+  <si>
+    <t>B - 20 PA</t>
+  </si>
+  <si>
+    <t>Toca</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>1641</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>10.0:1</t>
+  </si>
+  <si>
+    <t>57.6</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>44.8</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>5250</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>TURBO INJECTION</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>38924</t>
+  </si>
+  <si>
+    <t>23/06/2019</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>39862</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>49393</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>21/02/2019</t>
+  </si>
+  <si>
+    <t>51269</t>
+  </si>
+  <si>
+    <t>4499</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>Peugeot 108</t>
+  </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>INJECTION</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>31198</t>
+  </si>
+  <si>
+    <t>3475</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>26/05/2019</t>
+  </si>
+  <si>
+    <t>45868</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>5750</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>28928</t>
+  </si>
+  <si>
+    <t>3962</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>39551</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Access Plus</t>
+  </si>
+  <si>
+    <t>2538</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Estate</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Vauxhall Astra</t>
+  </si>
+  <si>
+    <t>16.5:1</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>60.1</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>COMMON RAIL</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>6 SPEED</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>78074</t>
+  </si>
+  <si>
+    <t>4698</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>83287</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>CDTi 160 SRi</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>2685</t>
+  </si>
+  <si>
+    <t>1814</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>Vauxhall Agila</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>11.0:1</t>
+  </si>
+  <si>
+    <t>79.4</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>29910</t>
+  </si>
+  <si>
+    <t>3740</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>28/09/2019</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>35149</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>ecoFLEX S</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>Ford Fiesta</t>
+  </si>
+  <si>
+    <t>18.1:1</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>3950</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>01/08/2019</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>40186</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>TDCi Titanium</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>2489</t>
+  </si>
+  <si>
+    <t>1787</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>25849</t>
+  </si>
+  <si>
+    <t>8896</t>
+  </si>
+  <si>
+    <t>25/09/2019</t>
+  </si>
+  <si>
+    <t>20745</t>
+  </si>
+  <si>
+    <t>4599</t>
   </si>
   <si>
     <t>Lounge</t>
   </si>
   <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>1515</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>15/02/2019</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>33,748</t>
-  </si>
-  <si>
-    <t>£3,999</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>EURO 6</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>Coupe</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>DOHC</t>
-  </si>
-  <si>
-    <t>Smart Fortwo</t>
-  </si>
-  <si>
-    <t>11.4:1</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>81.8</t>
-  </si>
-  <si>
-    <t>70.6</t>
-  </si>
-  <si>
-    <t>61.4</t>
-  </si>
-  <si>
-    <t>REAR TRANSVERSE</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>5800</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>1542</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>38,731</t>
-  </si>
-  <si>
-    <t>2695</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>24/09/2019</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>51,761</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>0.011</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>A - £0 PA</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>SEMI-AUTO</t>
-  </si>
-  <si>
-    <t>Pulse</t>
-  </si>
-  <si>
-    <t>8.75</t>
-  </si>
-  <si>
-    <t>1867</t>
-  </si>
-  <si>
-    <t>1559</t>
-  </si>
-  <si>
-    <t>1752</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>2             *</t>
-  </si>
-  <si>
-    <t>02/10/2019</t>
-  </si>
-  <si>
-    <t>31,584</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Suzuki Splash</t>
-  </si>
-  <si>
-    <t>11.0:1</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>79.4</t>
-  </si>
-  <si>
-    <t>60.1</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>50.4</t>
-  </si>
-  <si>
-    <t>K10B</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>1485</t>
-  </si>
-  <si>
-    <t>0.018</t>
-  </si>
-  <si>
-    <t>1590</t>
-  </si>
-  <si>
-    <t>12,851</t>
-  </si>
-  <si>
-    <t>3715</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>30/03/2019</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>27,685</t>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>Toyota Aygo</t>
+  </si>
+  <si>
+    <t>11.5:1</t>
+  </si>
+  <si>
+    <t>1KR-FE</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>31307</t>
+  </si>
+  <si>
+    <t>3455</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>03/07/2019</t>
+  </si>
+  <si>
+    <t>61795</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>X-Pression</t>
+  </si>
+  <si>
+    <t>34080</t>
+  </si>
+  <si>
+    <t>19/03/2019</t>
+  </si>
+  <si>
+    <t>42981</t>
+  </si>
+  <si>
+    <t>4799</t>
+  </si>
+  <si>
+    <t>Cabriolet</t>
+  </si>
+  <si>
+    <t>64.2</t>
+  </si>
+  <si>
+    <t>22109</t>
+  </si>
+  <si>
+    <t>22/04/2019</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>27747</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>Passion</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>Fiat Punto Evo</t>
+  </si>
+  <si>
+    <t>9.8:1</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>TURBO DIRECT INJECTION</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>4065</t>
   </si>
   <si>
     <t>1030</t>
   </si>
   <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>B - £20 PA</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>SZ2</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>1680</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Seat Mii</t>
-  </si>
-  <si>
-    <t>10.5:1</t>
-  </si>
-  <si>
-    <t>74.5</t>
-  </si>
-  <si>
-    <t>76.4</t>
-  </si>
-  <si>
-    <t>62.8</t>
-  </si>
-  <si>
-    <t>72.4</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>1290</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>3557</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>26/09/2019</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>40,041</t>
-  </si>
-  <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>£4,299</t>
-  </si>
-  <si>
-    <t>Toca</t>
-  </si>
-  <si>
-    <t>2420</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>10.0:1</t>
-  </si>
-  <si>
-    <t>57.6</t>
-  </si>
-  <si>
-    <t>68.9</t>
-  </si>
-  <si>
-    <t>44.8</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>5250</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>TURBO INJECTION</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>38,924</t>
-  </si>
-  <si>
-    <t>23/06/2019</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>39,862</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>1229</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Vauxhall Corsa</t>
-  </si>
-  <si>
-    <t>73.4</t>
-  </si>
-  <si>
-    <t>72.6</t>
-  </si>
-  <si>
-    <t>51.4</t>
-  </si>
-  <si>
-    <t>39.2</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>5600</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.057</t>
-  </si>
-  <si>
-    <t>1488</t>
-  </si>
-  <si>
-    <t>49,393</t>
-  </si>
-  <si>
-    <t>3999</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>21/02/2019</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>51,269</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>£4,499</t>
-  </si>
-  <si>
-    <t>D - £110 PA</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>2511</t>
-  </si>
-  <si>
-    <t>1737</t>
-  </si>
-  <si>
-    <t>1944</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>Peugeot 108</t>
-  </si>
-  <si>
-    <t>78.5</t>
-  </si>
-  <si>
-    <t>56.5</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>4300</t>
-  </si>
-  <si>
-    <t>INJECTION</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>31,198</t>
-  </si>
-  <si>
-    <t>3475</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>26/05/2019</t>
-  </si>
-  <si>
-    <t>45,868</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>2340</t>
-  </si>
-  <si>
-    <t>1615</t>
-  </si>
-  <si>
-    <t>1884</t>
-  </si>
-  <si>
-    <t>1199</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>5750</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>28,928</t>
-  </si>
-  <si>
-    <t>3962</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>16/01/2019</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>39,551</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>Access Plus</t>
-  </si>
-  <si>
-    <t>2538</t>
-  </si>
-  <si>
-    <t>1739</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>Estate</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Vauxhall Astra</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>16.5:1</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>90.4</t>
-  </si>
-  <si>
-    <t>49.6</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>COMMON RAIL</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>6 SPEED</t>
-  </si>
-  <si>
-    <t>2115</t>
-  </si>
-  <si>
-    <t>1535</t>
-  </si>
-  <si>
-    <t>78,074</t>
-  </si>
-  <si>
-    <t>4698</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>01/01/2019</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>83,287</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>CDTi 160 SRi</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>2685</t>
-  </si>
-  <si>
-    <t>1814</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>Vauxhall Agila</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>29,910</t>
-  </si>
-  <si>
-    <t>3740</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>28/09/2019</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>35,149</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>ecoFLEX S</t>
-  </si>
-  <si>
-    <t>1932</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>Ford Fiesta</t>
-  </si>
-  <si>
-    <t>18.1:1</t>
-  </si>
-  <si>
-    <t>73.7</t>
-  </si>
-  <si>
-    <t>58.9</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1540</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>1481</t>
-  </si>
-  <si>
-    <t>3950</t>
-  </si>
-  <si>
-    <t>979</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>01/08/2019</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>40,186</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>TDCi Titanium</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>2489</t>
-  </si>
-  <si>
-    <t>1787</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>25,849</t>
-  </si>
-  <si>
-    <t>12.9</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Fiat 500</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>8,896</t>
-  </si>
-  <si>
-    <t>3546</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>25/09/2019</t>
-  </si>
-  <si>
-    <t>20,745</t>
-  </si>
-  <si>
-    <t>865</t>
-  </si>
-  <si>
-    <t>73.5</t>
-  </si>
-  <si>
-    <t>£4,599</t>
-  </si>
-  <si>
-    <t>1627</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>Toyota Aygo</t>
-  </si>
-  <si>
-    <t>11.5:1</t>
-  </si>
-  <si>
-    <t>1KR-FE</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>31,307</t>
-  </si>
-  <si>
-    <t>3455</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>03/07/2019</t>
-  </si>
-  <si>
-    <t>61,795</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>X-Pression</t>
-  </si>
-  <si>
-    <t>34,080</t>
-  </si>
-  <si>
-    <t>19/03/2019</t>
-  </si>
-  <si>
-    <t>42,981</t>
-  </si>
-  <si>
-    <t>£4,799</t>
-  </si>
-  <si>
-    <t>Cabriolet</t>
-  </si>
-  <si>
-    <t>64.2</t>
-  </si>
-  <si>
-    <t>22,109</t>
-  </si>
-  <si>
-    <t>22/04/2019</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>27,747</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>Passion</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>Fiat Punto Evo</t>
-  </si>
-  <si>
-    <t>9.8:1</t>
-  </si>
-  <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>TURBO DIRECT INJECTION</t>
-  </si>
-  <si>
-    <t>0.048</t>
-  </si>
-  <si>
-    <t>1490</t>
-  </si>
-  <si>
-    <t>4065</t>
-  </si>
-  <si>
     <t>275</t>
   </si>
   <si>
@@ -1445,7 +1415,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>41,731</t>
+    <t>41731</t>
   </si>
   <si>
     <t>1155</t>
@@ -1466,19 +1436,19 @@
     <t>1687</t>
   </si>
   <si>
-    <t>39,784</t>
-  </si>
-  <si>
-    <t>28,285</t>
-  </si>
-  <si>
-    <t>29,816</t>
-  </si>
-  <si>
-    <t>36,988</t>
-  </si>
-  <si>
-    <t>£4,899</t>
+    <t>39784</t>
+  </si>
+  <si>
+    <t>28285</t>
+  </si>
+  <si>
+    <t>29816</t>
+  </si>
+  <si>
+    <t>36988</t>
+  </si>
+  <si>
+    <t>4899</t>
   </si>
   <si>
     <t>13.2</t>
@@ -1514,13 +1484,13 @@
     <t>436</t>
   </si>
   <si>
-    <t>33,143</t>
+    <t>33143</t>
   </si>
   <si>
     <t>854</t>
   </si>
   <si>
-    <t>£4,999</t>
+    <t>4999</t>
   </si>
   <si>
     <t>106</t>
@@ -1544,10 +1514,7 @@
     <t>42.8</t>
   </si>
   <si>
-    <t>1             *</t>
-  </si>
-  <si>
-    <t>26,789</t>
+    <t>26789</t>
   </si>
   <si>
     <t>08/07/2019</t>
@@ -1556,7 +1523,7 @@
     <t>575</t>
   </si>
   <si>
-    <t>26,827</t>
+    <t>26827</t>
   </si>
   <si>
     <t>940</t>
@@ -1589,7 +1556,7 @@
     <t>1480</t>
   </si>
   <si>
-    <t>19,534</t>
+    <t>19534</t>
   </si>
   <si>
     <t>3595</t>
@@ -1610,7 +1577,7 @@
     <t>700</t>
   </si>
   <si>
-    <t>24,506</t>
+    <t>24506</t>
   </si>
   <si>
     <t>925</t>
@@ -1655,7 +1622,7 @@
     <t>1554</t>
   </si>
   <si>
-    <t>38,467</t>
+    <t>38467</t>
   </si>
   <si>
     <t>980</t>
@@ -1670,7 +1637,7 @@
     <t>495</t>
   </si>
   <si>
-    <t>47,636</t>
+    <t>47636</t>
   </si>
   <si>
     <t>94</t>
@@ -1691,13 +1658,13 @@
     <t>Purple</t>
   </si>
   <si>
-    <t>9,069</t>
+    <t>9069</t>
   </si>
   <si>
     <t>04/09/2019</t>
   </si>
   <si>
-    <t>27,509</t>
+    <t>27509</t>
   </si>
 </sst>
 </file>
@@ -2348,44 +2315,50 @@
       <c r="AG2" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" t="s"/>
+      <c r="AH2" t="s">
+        <v>95</v>
+      </c>
       <c r="AI2" t="s"/>
       <c r="AJ2" t="s"/>
       <c r="AK2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL2" t="s"/>
       <c r="AM2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AN2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AO2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AP2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AQ2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="s"/>
-      <c r="AT2" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>104</v>
+      </c>
       <c r="AU2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AV2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AX2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AY2" t="s"/>
       <c r="AZ2" t="s">
@@ -2393,124 +2366,126 @@
       </c>
       <c r="BA2" t="s"/>
       <c r="BB2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BC2" t="s"/>
       <c r="BD2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BF2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BG2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BH2" t="s">
         <v>88</v>
       </c>
       <c r="BI2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BK2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BL2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BM2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BN2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" t="s"/>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
         <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
         <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="V3" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="W3" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="X3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="Y3" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="Z3" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="AA3" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="AB3" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="AC3" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="AD3" t="s">
         <v>91</v>
@@ -2519,182 +2494,180 @@
         <v>92</v>
       </c>
       <c r="AF3" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="AG3" t="s">
         <v>94</v>
       </c>
       <c r="AH3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI3" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>144</v>
+      </c>
       <c r="AJ3" t="s"/>
       <c r="AK3" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="AL3" t="s"/>
       <c r="AM3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AN3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="AO3" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="AP3" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="AQ3" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AR3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>103</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="AT3" t="s"/>
+      <c r="AU3" t="s"/>
+      <c r="AV3" t="s"/>
       <c r="AW3" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="AX3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY3" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>155</v>
+      </c>
       <c r="AZ3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA3" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>129</v>
+      </c>
       <c r="BB3" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="BC3" t="s"/>
       <c r="BD3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="BE3" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="BF3" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="BG3" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="BH3" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="BI3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="BJ3" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="BK3" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="BL3" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="BM3" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="BN3" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:66">
       <c r="A4" t="s"/>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="K4" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
         <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
         <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="W4" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="Y4" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="Z4" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="AC4" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="AD4" t="s">
         <v>91</v>
@@ -2703,129 +2676,129 @@
         <v>92</v>
       </c>
       <c r="AF4" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s">
         <v>94</v>
       </c>
       <c r="AH4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>152</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AI4" t="s"/>
       <c r="AJ4" t="s"/>
       <c r="AK4" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="AL4" t="s"/>
       <c r="AM4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AN4" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="AO4" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="AP4" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="AQ4" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="AS4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>106</v>
+      </c>
       <c r="AW4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AX4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>163</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AY4" t="s"/>
       <c r="AZ4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>137</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BA4" t="s"/>
       <c r="BB4" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="BC4" t="s"/>
       <c r="BD4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="BE4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BF4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BG4" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="BH4" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="BI4" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="BJ4" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="BK4" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="BL4" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="BM4" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="BN4" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:66">
       <c r="A5" t="s"/>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
         <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="K5" t="s"/>
       <c r="L5" t="s">
         <v>75</v>
       </c>
@@ -2833,47 +2806,47 @@
         <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="Q5" t="s">
         <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="s">
         <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="Z5" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="AA5" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="AB5" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="AC5" t="s">
         <v>90</v>
@@ -2885,184 +2858,186 @@
         <v>92</v>
       </c>
       <c r="AF5" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="AG5" t="s">
         <v>94</v>
       </c>
       <c r="AH5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>191</v>
+      </c>
       <c r="AK5" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="AL5" t="s"/>
       <c r="AM5" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="AN5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AP5" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="AQ5" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="AR5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>122</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AS5" t="s"/>
       <c r="AT5" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AU5" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="AV5" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="AW5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY5" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="AX5" t="s"/>
+      <c r="AY5" t="s">
+        <v>199</v>
+      </c>
       <c r="AZ5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA5" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>134</v>
+      </c>
       <c r="BB5" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="s"/>
       <c r="BD5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="BE5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BF5" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="BG5" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="BH5" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="BI5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ5" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="BK5" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="BL5" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="BM5" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="BN5" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:66">
       <c r="A6" t="s"/>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
         <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
         <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="Q6" t="s">
         <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>187</v>
-      </c>
-      <c r="T6" t="s">
-        <v>188</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="T6" t="s"/>
       <c r="U6" t="s">
         <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="W6" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="Z6" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="AA6" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="AB6" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="AC6" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="AD6" t="s">
         <v>91</v>
@@ -3071,178 +3046,176 @@
         <v>92</v>
       </c>
       <c r="AF6" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AG6" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" t="s">
-        <v>195</v>
-      </c>
+      <c r="AH6" t="s"/>
       <c r="AI6" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ6" t="s"/>
       <c r="AK6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AL6" t="s"/>
       <c r="AM6" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="AN6" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AO6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AP6" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="AQ6" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="AR6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="AS6" t="s"/>
+      <c r="AT6" t="s"/>
+      <c r="AU6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>106</v>
+      </c>
       <c r="AW6" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AX6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AY6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="BA6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="BB6" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="BC6" t="s"/>
       <c r="BD6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="BE6" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF6" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG6" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="BH6" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ6" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="BK6" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="BL6" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="BM6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BN6" t="s"/>
     </row>
     <row r="7" spans="1:66">
       <c r="A7" t="s"/>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L7" t="s">
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="O7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="s">
         <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="S7" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="s">
         <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="W7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="X7" t="s">
         <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AA7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB7" t="s">
         <v>89</v>
       </c>
       <c r="AC7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD7" t="s">
         <v>91</v>
@@ -3251,47 +3224,47 @@
         <v>92</v>
       </c>
       <c r="AF7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG7" t="s">
         <v>94</v>
       </c>
       <c r="AH7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AI7" t="s"/>
       <c r="AJ7" t="s"/>
       <c r="AK7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AL7" t="s"/>
       <c r="AM7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AN7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AP7" t="s"/>
       <c r="AQ7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AR7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AS7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AT7" t="s"/>
       <c r="AU7" t="s"/>
       <c r="AV7" t="s"/>
       <c r="AW7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AX7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AY7" t="s"/>
       <c r="AZ7" t="s">
@@ -3299,251 +3272,251 @@
       </c>
       <c r="BA7" t="s"/>
       <c r="BB7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC7" t="s"/>
       <c r="BD7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="BE7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BF7" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="BH7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="BK7" t="s"/>
       <c r="BL7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="BM7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BN7" t="s"/>
     </row>
     <row r="8" spans="1:66">
       <c r="A8" t="s"/>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
         <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="L8" t="s">
         <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q8" t="s">
         <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="S8" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="V8" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="W8" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="X8" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Y8" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Z8" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AA8" t="s">
         <v>69</v>
       </c>
       <c r="AB8" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AC8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD8" t="s">
         <v>91</v>
       </c>
       <c r="AE8" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AF8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AG8" t="s">
         <v>94</v>
       </c>
       <c r="AH8" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="AI8" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AJ8" t="s"/>
       <c r="AK8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AL8" t="s"/>
       <c r="AM8" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AN8" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AO8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AP8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AR8" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="AS8" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="AT8" t="s"/>
       <c r="AU8" t="s"/>
       <c r="AV8" t="s"/>
       <c r="AW8" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AX8" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AY8" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AZ8" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="BA8" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="BB8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC8" t="s"/>
       <c r="BD8" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="BE8" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF8" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BH8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM8" t="s">
         <v>166</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BN8" t="s">
         <v>167</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:66">
       <c r="A9" t="s"/>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
         <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
@@ -3553,47 +3526,47 @@
         <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="O9" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="Q9" t="s">
         <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="S9" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="s">
         <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="W9" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="X9" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="Y9" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="Z9" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="AA9" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="AB9" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="AC9" t="s">
         <v>90</v>
@@ -3605,231 +3578,231 @@
         <v>92</v>
       </c>
       <c r="AF9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG9" t="s">
         <v>94</v>
       </c>
       <c r="AH9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AI9" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="AK9" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="AL9" t="s"/>
       <c r="AM9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AN9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AO9" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="AP9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AQ9" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="AR9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AS9" t="s"/>
       <c r="AT9" t="s">
         <v>86</v>
       </c>
       <c r="AU9" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="AV9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AW9" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AX9" t="s"/>
       <c r="AY9" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="AZ9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BA9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="BB9" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="s"/>
       <c r="BD9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="BE9" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF9" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG9" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="BH9" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="BI9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ9" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="BK9" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="BL9" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="BM9" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="BN9" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:66">
       <c r="A10" t="s"/>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s"/>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I10" t="s">
         <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
         <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q10" t="s">
         <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S10" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="s">
         <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W10" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="X10" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z10" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AA10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB10" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AC10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD10" t="s">
         <v>91</v>
       </c>
       <c r="AE10" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF10" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG10" t="s">
         <v>94</v>
       </c>
       <c r="AH10" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AI10" t="s"/>
       <c r="AJ10" t="s"/>
       <c r="AK10" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL10" t="s"/>
       <c r="AM10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AN10" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AO10" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AP10" t="s"/>
       <c r="AQ10" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AR10" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="AS10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AT10" t="s"/>
       <c r="AU10" t="s"/>
       <c r="AV10" t="s"/>
       <c r="AW10" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="AX10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AY10" t="s"/>
       <c r="AZ10" t="s">
@@ -3837,69 +3810,69 @@
       </c>
       <c r="BA10" t="s"/>
       <c r="BB10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC10" t="s"/>
       <c r="BD10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="BE10" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BH10" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ10" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="BK10" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="BL10" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="BM10" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="BN10" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:66">
       <c r="A11" t="s"/>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s"/>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="I11" t="s">
         <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3907,41 +3880,41 @@
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="s">
         <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="S11" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="s">
         <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="W11" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="X11" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="Y11" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="Z11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AA11" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="AB11" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AC11" t="s">
         <v>90</v>
@@ -3953,120 +3926,120 @@
         <v>92</v>
       </c>
       <c r="AF11" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="AG11" t="s">
         <v>94</v>
       </c>
       <c r="AH11" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AI11" t="s"/>
       <c r="AJ11" t="s"/>
       <c r="AK11" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL11" t="s"/>
       <c r="AM11" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AN11" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AO11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AP11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="AQ11" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="AR11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="AS11" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="AT11" t="s"/>
       <c r="AU11" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AV11" t="s"/>
       <c r="AW11" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="AX11" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="AY11" t="s"/>
       <c r="AZ11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BA11" t="s"/>
       <c r="BB11" t="s"/>
       <c r="BC11" t="s"/>
       <c r="BD11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="BE11" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF11" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG11" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="BH11" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="BI11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="BK11" t="s"/>
       <c r="BL11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="BM11" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="BN11" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:66">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s"/>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="I12" t="s">
         <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L12" t="s">
         <v>75</v>
@@ -4075,230 +4048,230 @@
         <v>76</v>
       </c>
       <c r="N12" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="O12" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="Q12" t="s">
         <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="S12" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="s">
         <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="W12" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="X12" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="Y12" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Z12" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AA12" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AB12" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC12" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AD12" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AE12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AF12" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AG12" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AH12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AI12" t="s"/>
       <c r="AJ12" t="s"/>
       <c r="AK12" t="s"/>
       <c r="AL12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AM12" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AN12" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AO12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AP12" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AQ12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AR12" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AS12" t="s"/>
       <c r="AT12" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AU12" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AV12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AW12" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AX12" t="s"/>
       <c r="AY12" t="s"/>
       <c r="AZ12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BA12" t="s"/>
       <c r="BB12" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="s"/>
       <c r="BD12" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="BE12" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF12" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG12" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="BH12" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="BI12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="BK12" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="BL12" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="BM12" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="BN12" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:66">
       <c r="A13" t="s"/>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="I13" t="s">
         <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="K13" t="s">
-        <v>182</v>
+        <v>367</v>
       </c>
       <c r="L13" t="s">
         <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="O13" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="Q13" t="s">
         <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="S13" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="s">
         <v>82</v>
       </c>
       <c r="V13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W13" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="X13" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y13" t="s">
-        <v>191</v>
+        <v>370</v>
       </c>
       <c r="Z13" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="AA13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AB13" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="AC13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD13" t="s">
         <v>91</v>
@@ -4307,98 +4280,98 @@
         <v>92</v>
       </c>
       <c r="AF13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG13" t="s">
         <v>94</v>
       </c>
       <c r="AH13" t="s">
-        <v>195</v>
+        <v>372</v>
       </c>
       <c r="AI13" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AJ13" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AK13" t="s">
-        <v>197</v>
+        <v>375</v>
       </c>
       <c r="AL13" t="s"/>
       <c r="AM13" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AN13" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR13" t="s">
         <v>379</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AS13" t="s">
         <v>380</v>
       </c>
-      <c r="AP13" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>382</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>383</v>
-      </c>
       <c r="AT13" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AU13" t="s"/>
       <c r="AV13" t="s"/>
       <c r="AW13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AX13" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="AY13" t="s">
-        <v>207</v>
+        <v>382</v>
       </c>
       <c r="AZ13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BA13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="BB13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC13" t="s"/>
       <c r="BD13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="BE13" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF13" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG13" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="BH13" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ13" t="s">
+        <v>384</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>385</v>
+      </c>
+      <c r="BM13" t="s">
         <v>386</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>313</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>214</v>
       </c>
       <c r="BN13" t="s">
         <v>387</v>
@@ -4419,7 +4392,7 @@
         <v>390</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
         <v>70</v>
@@ -4431,7 +4404,7 @@
         <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
         <v>392</v>
@@ -4446,278 +4419,278 @@
         <v>393</v>
       </c>
       <c r="O14" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q14" t="s">
         <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S14" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="s">
         <v>82</v>
       </c>
       <c r="V14" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="W14" t="s">
         <v>84</v>
       </c>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="Z14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA14" t="s">
         <v>395</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>396</v>
       </c>
       <c r="AB14" t="s"/>
       <c r="AC14" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF14" t="s">
         <v>397</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>398</v>
       </c>
       <c r="AG14" t="s">
         <v>94</v>
       </c>
       <c r="AH14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI14" t="s"/>
       <c r="AJ14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK14" t="s">
         <v>400</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>401</v>
       </c>
       <c r="AL14" t="s"/>
       <c r="AM14" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AN14" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP14" t="s">
         <v>402</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>403</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>404</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AS14" t="s">
         <v>405</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>406</v>
       </c>
       <c r="AT14" t="s"/>
       <c r="AU14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AV14" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX14" t="s">
         <v>407</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>408</v>
       </c>
-      <c r="AX14" t="s">
-        <v>409</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>410</v>
-      </c>
       <c r="AZ14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BA14" t="s">
         <v>83</v>
       </c>
       <c r="BB14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BC14" t="s">
+        <v>409</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>278</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>248</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>410</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>411</v>
       </c>
-      <c r="BD14" t="s">
-        <v>288</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>210</v>
-      </c>
-      <c r="BH14" t="s">
+      <c r="BK14" t="s">
         <v>412</v>
       </c>
-      <c r="BI14" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>413</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BM14" t="s">
         <v>414</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BN14" t="s">
         <v>415</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>416</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:66">
       <c r="A15" t="s"/>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E15" t="s"/>
       <c r="F15" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G15" t="s">
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I15" t="s">
         <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
         <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q15" t="s">
         <v>72</v>
       </c>
       <c r="R15" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S15" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="s">
         <v>82</v>
       </c>
       <c r="V15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W15" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="X15" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y15" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z15" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AA15" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB15" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AC15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD15" t="s">
         <v>91</v>
       </c>
       <c r="AE15" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF15" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG15" t="s">
         <v>94</v>
       </c>
       <c r="AH15" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AI15" t="s"/>
       <c r="AJ15" t="s"/>
       <c r="AK15" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL15" t="s"/>
       <c r="AM15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AN15" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO15" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AP15" t="s"/>
       <c r="AQ15" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AR15" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AS15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AT15" t="s"/>
       <c r="AU15" t="s"/>
       <c r="AV15" t="s"/>
       <c r="AW15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AX15" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AY15" t="s"/>
       <c r="AZ15" t="s">
@@ -4725,47 +4698,47 @@
       </c>
       <c r="BA15" t="s"/>
       <c r="BB15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC15" t="s"/>
       <c r="BD15" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="BE15" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BF15" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BH15" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ15" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="BK15" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="BL15" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="BM15" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="BN15" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:66">
       <c r="A16" t="s"/>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -4774,22 +4747,22 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>421</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="I16" t="s">
         <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
@@ -4807,7 +4780,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="Q16" t="s">
         <v>72</v>
@@ -4816,7 +4789,7 @@
         <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="s">
@@ -4853,94 +4826,94 @@
         <v>92</v>
       </c>
       <c r="AF16" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG16" t="s">
         <v>94</v>
       </c>
       <c r="AH16" t="s"/>
       <c r="AI16" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="AJ16" t="s"/>
       <c r="AK16" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s"/>
       <c r="AM16" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AO16" t="s">
-        <v>426</v>
+        <v>218</v>
       </c>
       <c r="AP16" t="s">
-        <v>407</v>
+        <v>219</v>
       </c>
       <c r="AQ16" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
       <c r="AR16" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AS16" t="s"/>
       <c r="AT16" t="s"/>
       <c r="AU16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AV16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW16" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="AX16" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="AY16" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="AZ16" t="s">
         <v>76</v>
       </c>
       <c r="BA16" t="s">
-        <v>431</v>
+        <v>224</v>
       </c>
       <c r="BB16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BC16" t="s"/>
       <c r="BD16" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="BE16" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF16" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BH16" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ16" t="s">
-        <v>112</v>
+        <v>422</v>
       </c>
       <c r="BK16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BL16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BM16" t="s">
-        <v>433</v>
+        <v>226</v>
       </c>
       <c r="BN16" t="s"/>
     </row>
@@ -4953,183 +4926,183 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I17" t="s">
         <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L17" t="s">
         <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q17" t="s">
         <v>72</v>
       </c>
       <c r="R17" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S17" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T17" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="U17" t="s">
         <v>82</v>
       </c>
       <c r="V17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W17" t="s">
         <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y17" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z17" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AA17" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB17" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AC17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD17" t="s">
         <v>91</v>
       </c>
       <c r="AE17" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF17" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG17" t="s">
         <v>94</v>
       </c>
       <c r="AH17" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AI17" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AJ17" t="s"/>
       <c r="AK17" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL17" t="s"/>
       <c r="AM17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AN17" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AO17" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AP17" t="s"/>
       <c r="AQ17" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AR17" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="AS17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AT17" t="s"/>
       <c r="AU17" t="s"/>
       <c r="AV17" t="s"/>
       <c r="AW17" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="AX17" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AY17" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="AZ17" t="s">
         <v>76</v>
       </c>
       <c r="BA17" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="BB17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC17" t="s"/>
       <c r="BD17" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="BE17" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF17" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BH17" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ17" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="BK17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BL17" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="BM17" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="BN17" t="s"/>
     </row>
     <row r="18" spans="1:66">
       <c r="A18" t="s"/>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -5138,22 +5111,22 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>421</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="I18" t="s">
         <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
@@ -5171,7 +5144,7 @@
         <v>78</v>
       </c>
       <c r="P18" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="Q18" t="s">
         <v>72</v>
@@ -5180,7 +5153,7 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="s">
@@ -5217,180 +5190,180 @@
         <v>92</v>
       </c>
       <c r="AF18" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s">
         <v>94</v>
       </c>
       <c r="AH18" t="s"/>
       <c r="AI18" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="AJ18" t="s"/>
       <c r="AK18" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s"/>
       <c r="AM18" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="AN18" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AO18" t="s">
-        <v>426</v>
+        <v>218</v>
       </c>
       <c r="AP18" t="s">
-        <v>407</v>
+        <v>219</v>
       </c>
       <c r="AQ18" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
       <c r="AR18" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="AS18" t="s"/>
       <c r="AT18" t="s"/>
       <c r="AU18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AV18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW18" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AX18" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="AY18" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="AZ18" t="s">
         <v>76</v>
       </c>
       <c r="BA18" t="s">
-        <v>431</v>
+        <v>224</v>
       </c>
       <c r="BB18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BC18" t="s"/>
       <c r="BD18" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="BE18" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF18" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BH18" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ18" t="s">
-        <v>112</v>
+        <v>422</v>
       </c>
       <c r="BK18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BL18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BM18" t="s">
-        <v>433</v>
+        <v>226</v>
       </c>
       <c r="BN18" t="s"/>
     </row>
     <row r="19" spans="1:66">
       <c r="A19" t="s"/>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s">
         <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s">
         <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P19" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="S19" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="s">
+        <v>133</v>
+      </c>
+      <c r="V19" t="s">
+        <v>134</v>
+      </c>
+      <c r="W19" t="s">
+        <v>135</v>
+      </c>
+      <c r="X19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC19" t="s">
         <v>141</v>
-      </c>
-      <c r="V19" t="s">
-        <v>142</v>
-      </c>
-      <c r="W19" t="s">
-        <v>143</v>
-      </c>
-      <c r="X19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>149</v>
       </c>
       <c r="AD19" t="s">
         <v>91</v>
@@ -5399,130 +5372,130 @@
         <v>92</v>
       </c>
       <c r="AF19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AG19" t="s">
         <v>94</v>
       </c>
       <c r="AH19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AI19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AJ19" t="s"/>
       <c r="AK19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AL19" t="s"/>
       <c r="AM19" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="AN19" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AO19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AP19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AR19" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="AS19" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="AT19" t="s"/>
       <c r="AU19" t="s"/>
       <c r="AV19" t="s"/>
       <c r="AW19" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AX19" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="AY19" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AZ19" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="BA19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="BB19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC19" t="s"/>
       <c r="BD19" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="BE19" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF19" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG19" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>446</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL19" t="s">
         <v>165</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BM19" t="s">
         <v>166</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BN19" t="s">
         <v>167</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>457</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:66">
       <c r="A20" t="s"/>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E20" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="I20" t="s">
         <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L20" t="s">
         <v>75</v>
@@ -5531,155 +5504,155 @@
         <v>76</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="Q20" t="s">
         <v>72</v>
       </c>
       <c r="R20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="s">
         <v>82</v>
       </c>
       <c r="V20" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="X20" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="Y20" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="Z20" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="AA20" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="AB20" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD20" t="s">
         <v>91</v>
       </c>
       <c r="AE20" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AF20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s">
         <v>94</v>
       </c>
       <c r="AH20" t="s"/>
       <c r="AI20" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="AJ20" t="s"/>
       <c r="AK20" t="s"/>
       <c r="AL20" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="AM20" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="AN20" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO20" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="AP20" t="s">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="AQ20" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="AR20" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="AS20" t="s"/>
       <c r="AT20" t="s">
         <v>86</v>
       </c>
       <c r="AU20" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="AV20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW20" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AX20" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AY20" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="AZ20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BA20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="BB20" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="s"/>
       <c r="BD20" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="BE20" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BF20" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG20" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="BH20" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="BI20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ20" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="BK20" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="BL20" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="BM20" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="BN20" t="s"/>
     </row>
     <row r="21" spans="1:66">
       <c r="A21" t="s"/>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
@@ -5688,22 +5661,22 @@
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>421</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="I21" t="s">
         <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
@@ -5721,7 +5694,7 @@
         <v>78</v>
       </c>
       <c r="P21" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="Q21" t="s">
         <v>72</v>
@@ -5730,7 +5703,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="s">
@@ -5767,225 +5740,225 @@
         <v>92</v>
       </c>
       <c r="AF21" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s">
         <v>94</v>
       </c>
       <c r="AH21" t="s"/>
       <c r="AI21" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="AJ21" t="s"/>
       <c r="AK21" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s"/>
       <c r="AM21" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO21" t="s">
-        <v>426</v>
+        <v>218</v>
       </c>
       <c r="AP21" t="s">
-        <v>407</v>
+        <v>219</v>
       </c>
       <c r="AQ21" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
       <c r="AR21" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AS21" t="s"/>
       <c r="AT21" t="s"/>
       <c r="AU21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AV21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW21" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AX21" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="AY21" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="AZ21" t="s">
         <v>76</v>
       </c>
       <c r="BA21" t="s">
-        <v>431</v>
+        <v>224</v>
       </c>
       <c r="BB21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BC21" t="s"/>
       <c r="BD21" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="BE21" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BF21" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BH21" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="BK21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BL21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BM21" t="s">
-        <v>433</v>
+        <v>226</v>
       </c>
       <c r="BN21" t="s"/>
     </row>
     <row r="22" spans="1:66">
       <c r="A22" t="s"/>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s"/>
       <c r="F22" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
         <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I22" t="s">
         <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
         <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O22" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q22" t="s">
         <v>72</v>
       </c>
       <c r="R22" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S22" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="s">
         <v>82</v>
       </c>
       <c r="V22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W22" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="X22" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z22" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AA22" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB22" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AC22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD22" t="s">
         <v>91</v>
       </c>
       <c r="AE22" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF22" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s">
         <v>94</v>
       </c>
       <c r="AH22" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AI22" t="s"/>
       <c r="AJ22" t="s"/>
       <c r="AK22" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL22" t="s"/>
       <c r="AM22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AN22" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO22" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AP22" t="s"/>
       <c r="AQ22" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AR22" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AS22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AT22" t="s"/>
       <c r="AU22" t="s"/>
       <c r="AV22" t="s"/>
       <c r="AW22" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="AX22" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AY22" t="s"/>
       <c r="AZ22" t="s">
@@ -5993,171 +5966,171 @@
       </c>
       <c r="BA22" t="s"/>
       <c r="BB22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC22" t="s"/>
       <c r="BD22" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="BE22" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BF22" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BH22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ22" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="BK22" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="BL22" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="BM22" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="BN22" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:66">
       <c r="A23" t="s"/>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E23" t="s"/>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I23" t="s">
         <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
         <v>75</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O23" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q23" t="s">
         <v>72</v>
       </c>
       <c r="R23" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="s">
         <v>82</v>
       </c>
       <c r="V23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W23" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="X23" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z23" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AA23" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AC23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD23" t="s">
         <v>91</v>
       </c>
       <c r="AE23" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF23" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s">
         <v>94</v>
       </c>
       <c r="AH23" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AI23" t="s"/>
       <c r="AJ23" t="s"/>
       <c r="AK23" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL23" t="s"/>
       <c r="AM23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AN23" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="AO23" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AP23" t="s"/>
       <c r="AQ23" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AR23" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AS23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AT23" t="s"/>
       <c r="AU23" t="s"/>
       <c r="AV23" t="s"/>
       <c r="AW23" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="AX23" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AY23" t="s"/>
       <c r="AZ23" t="s">
@@ -6165,88 +6138,88 @@
       </c>
       <c r="BA23" t="s"/>
       <c r="BB23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC23" t="s"/>
       <c r="BD23" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="BE23" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF23" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BH23" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ23" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="BK23" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="BL23" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="BM23" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="BN23" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:66">
       <c r="A24" t="s"/>
       <c r="B24" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s"/>
       <c r="F24" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="I24" t="s">
         <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
         <v>75</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s"/>
       <c r="O24" t="s"/>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="Q24" t="s">
         <v>72</v>
       </c>
       <c r="R24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="S24" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="s">
@@ -6256,25 +6229,25 @@
         <v>86</v>
       </c>
       <c r="W24" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="X24" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="AA24" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB24" t="s">
         <v>89</v>
       </c>
       <c r="AC24" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD24" t="s">
         <v>91</v>
@@ -6283,51 +6256,51 @@
         <v>92</v>
       </c>
       <c r="AF24" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s">
         <v>94</v>
       </c>
       <c r="AH24" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AI24" t="s"/>
       <c r="AJ24" t="s"/>
       <c r="AK24" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="AL24" t="s"/>
       <c r="AM24" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AN24" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AO24" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AP24" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="AQ24" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AR24" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AS24" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AT24" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="AU24" t="s"/>
       <c r="AV24" t="s"/>
       <c r="AW24" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AX24" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AY24" t="s"/>
       <c r="AZ24" t="s">
@@ -6335,41 +6308,41 @@
       </c>
       <c r="BA24" t="s"/>
       <c r="BB24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC24" t="s"/>
       <c r="BD24" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="BE24" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BF24" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG24" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="BH24" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="BI24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ24" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="BK24" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="BL24" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="BM24" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BN24" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:66">
@@ -6385,7 +6358,7 @@
       </c>
       <c r="E25" t="s"/>
       <c r="F25" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G25" t="s">
         <v>70</v>
@@ -6397,7 +6370,7 @@
         <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
@@ -6415,7 +6388,7 @@
         <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="Q25" t="s">
         <v>72</v>
@@ -6424,7 +6397,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="s">
@@ -6467,49 +6440,49 @@
         <v>94</v>
       </c>
       <c r="AH25" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="AI25" t="s"/>
       <c r="AJ25" t="s"/>
       <c r="AK25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL25" t="s"/>
       <c r="AM25" t="s">
-        <v>509</v>
+        <v>146</v>
       </c>
       <c r="AN25" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="AO25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AP25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AQ25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AR25" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="AS25" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="AT25" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="AU25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AV25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW25" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="AX25" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="AY25" t="s"/>
       <c r="AZ25" t="s">
@@ -6517,74 +6490,74 @@
       </c>
       <c r="BA25" t="s"/>
       <c r="BB25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BC25" t="s"/>
       <c r="BD25" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="BE25" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF25" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BH25" t="s">
         <v>88</v>
       </c>
       <c r="BI25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ25" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="BK25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BL25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BM25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BN25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:66">
       <c r="A26" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="E26" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="F26" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G26" t="s">
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="I26" t="s">
         <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
         <v>75</v>
@@ -6593,47 +6566,47 @@
         <v>76</v>
       </c>
       <c r="N26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O26" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="Q26" t="s">
         <v>72</v>
       </c>
       <c r="R26" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="S26" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="s">
         <v>82</v>
       </c>
       <c r="V26" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AA26" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AB26" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="AC26" t="s">
         <v>90</v>
@@ -6645,182 +6618,182 @@
         <v>92</v>
       </c>
       <c r="AF26" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG26" t="s">
         <v>94</v>
       </c>
       <c r="AH26" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="AI26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AJ26" t="s"/>
       <c r="AK26" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="AL26" t="s"/>
       <c r="AM26" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AN26" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="AO26" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AP26" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="AQ26" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="AR26" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="AS26" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="AT26" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AU26" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="AV26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="AX26" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="AY26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AZ26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BA26" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="BB26" t="s"/>
       <c r="BC26" t="s"/>
       <c r="BD26" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="BE26" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF26" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="BG26" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="BH26" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="BI26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ26" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="BK26" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="BL26" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="BM26" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="BN26" t="s"/>
     </row>
     <row r="27" spans="1:66">
       <c r="A27" t="s"/>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H27" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="I27" t="s">
         <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
         <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N27" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="O27" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="Q27" t="s">
         <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="S27" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T27" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="U27" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="V27" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="W27" t="s">
         <v>84</v>
       </c>
       <c r="X27" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y27" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="Z27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA27" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AB27" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="AC27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD27" t="s">
         <v>91</v>
@@ -6829,49 +6802,49 @@
         <v>92</v>
       </c>
       <c r="AF27" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s">
         <v>94</v>
       </c>
       <c r="AH27" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="AI27" t="s"/>
       <c r="AJ27" t="s"/>
       <c r="AK27" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="AL27" t="s"/>
       <c r="AM27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AN27" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="AO27" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AP27" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="AQ27" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="AR27" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="AS27" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="AT27" t="s"/>
       <c r="AU27" t="s"/>
       <c r="AV27" t="s"/>
       <c r="AW27" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="AX27" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="AY27" t="s"/>
       <c r="AZ27" t="s">
@@ -6879,169 +6852,169 @@
       </c>
       <c r="BA27" t="s"/>
       <c r="BB27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC27" t="s"/>
       <c r="BD27" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="BE27" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF27" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BH27" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="BI27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ27" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="BK27" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="BL27" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="BM27" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="BN27" t="s"/>
     </row>
     <row r="28" spans="1:66">
       <c r="A28" t="s"/>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E28" t="s"/>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I28" t="s">
         <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
         <v>75</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N28" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O28" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q28" t="s">
         <v>72</v>
       </c>
       <c r="R28" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S28" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="s">
         <v>82</v>
       </c>
       <c r="V28" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W28" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="X28" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Z28" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AA28" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AB28" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AC28" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AD28" t="s">
         <v>91</v>
       </c>
       <c r="AE28" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF28" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG28" t="s">
         <v>94</v>
       </c>
       <c r="AH28" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AI28" t="s"/>
       <c r="AJ28" t="s"/>
       <c r="AK28" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AL28" t="s"/>
       <c r="AM28" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AN28" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="AO28" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AP28" t="s"/>
       <c r="AQ28" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AR28" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="AS28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AT28" t="s"/>
       <c r="AU28" t="s"/>
       <c r="AV28" t="s"/>
       <c r="AW28" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="AX28" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AY28" t="s"/>
       <c r="AZ28" t="s">
@@ -7049,41 +7022,41 @@
       </c>
       <c r="BA28" t="s"/>
       <c r="BB28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BC28" t="s"/>
       <c r="BD28" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="BE28" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BF28" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="BG28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BH28" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="BI28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ28" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="BK28" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="BL28" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="BM28" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="BN28" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
